--- a/Data.xlsx
+++ b/Data.xlsx
@@ -103,10 +103,10 @@
     <t xml:space="preserve">Birmingham</t>
   </si>
   <si>
-    <t xml:space="preserve">Leeds </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bristol </t>
+    <t xml:space="preserve">Leeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bristol</t>
   </si>
   <si>
     <t xml:space="preserve">Sheffield</t>
@@ -185,8 +185,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -198,7 +202,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -568,927 +572,927 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="5.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="5.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <f aca="false">[1]Inventory!B2</f>
         <v>1497</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <f aca="false">[1]Forecast!B2</f>
         <v>58</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <f aca="false">[1]Forecast!C2</f>
         <v>58</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">[1]Forecast!D2</f>
         <v>57</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">[1]Forecast!E2</f>
         <v>53</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <f aca="false">[1]Forecast!F2</f>
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <f aca="false">[1]Forecast!G2</f>
         <v>60</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <f aca="false">[1]Forecast!H2</f>
         <v>51</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <f aca="false">[1]Forecast!I2</f>
         <v>50</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <f aca="false">[1]Forecast!J2</f>
         <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <f aca="false">[1]Incoming!B2</f>
         <v>59</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <f aca="false">[1]Incoming!C2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false">[1]Incoming!D2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <f aca="false">[1]Incoming!E2</f>
         <v>0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <f aca="false">[1]Incoming!F2</f>
         <v>0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <f aca="false">[1]Incoming!G2</f>
         <v>0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">[1]Incoming!H2</f>
         <v>53</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <f aca="false">[1]Incoming!I2</f>
         <v>0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">[1]Incoming!J2</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <f aca="false">C2-C3+C4</f>
         <v>1498</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <f aca="false">C5+D4-D3</f>
         <v>1440</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <f aca="false">D5+E4-E3</f>
         <v>1383</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <f aca="false">E5+F4-F3</f>
         <v>1330</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <f aca="false">F5+G4-G3</f>
         <v>1272</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <f aca="false">G5+H4-H3</f>
         <v>1212</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">H5+I4-I3</f>
         <v>1214</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">I5+J4-J3</f>
         <v>1164</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">J5+K4-K3</f>
         <v>1106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <f aca="false">ROUND(C5/AVERAGE(D3:G3),0)</f>
         <v>27</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <f aca="false">ROUND(D5/AVERAGE(E3:H3),0)</f>
         <v>25</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <f aca="false">ROUND(E5/AVERAGE(F3:I3),0)</f>
         <v>25</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <f aca="false">ROUND(F5/AVERAGE(G3:J3),0)</f>
         <v>24</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <f aca="false">ROUND(G5/AVERAGE(H3:K3),0)</f>
         <v>23</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <f aca="false">ROUND(H5/AVERAGE(I3:L3),0)</f>
         <v>23</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">ROUND(I5/AVERAGE(J3:M3),0)</f>
         <v>22</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">ROUND(J5/AVERAGE(K3:N3),0)</f>
         <v>20</v>
       </c>
-      <c r="K6" s="0" t="e">
+      <c r="K6" s="1" t="e">
         <f aca="false">ROUND(K5/AVERAGE(L3:O3),0)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <f aca="false">[1]Inventory!B3</f>
         <v>496</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <f aca="false">[1]Forecast!B3</f>
         <v>60</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <f aca="false">[1]Forecast!C3</f>
         <v>51</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <f aca="false">[1]Forecast!D3</f>
         <v>60</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <f aca="false">[1]Forecast!E3</f>
         <v>60</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <f aca="false">[1]Forecast!F3</f>
         <v>51</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <f aca="false">[1]Forecast!G3</f>
         <v>51</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <f aca="false">[1]Forecast!H3</f>
         <v>56</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <f aca="false">[1]Forecast!I3</f>
         <v>50</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <f aca="false">[1]Forecast!J3</f>
         <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <f aca="false">[1]Incoming!B3</f>
         <v>0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <f aca="false">[1]Incoming!C3</f>
         <v>0</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <f aca="false">[1]Incoming!D3</f>
         <v>0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <f aca="false">[1]Incoming!E3</f>
         <v>0</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <f aca="false">[1]Incoming!F3</f>
         <v>0</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <f aca="false">[1]Incoming!G3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <f aca="false">[1]Incoming!H3</f>
         <v>0</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <f aca="false">[1]Incoming!I3</f>
         <v>52</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <f aca="false">[1]Incoming!J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <f aca="false">C7-C8+C9</f>
         <v>436</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <f aca="false">C10+D9-D8</f>
         <v>385</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <f aca="false">D10+E9-E8</f>
         <v>325</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <f aca="false">E10+F9-F8</f>
         <v>265</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <f aca="false">F10+G9-G8</f>
         <v>214</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <f aca="false">G10+H9-H8</f>
         <v>163</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <f aca="false">H10+I9-I8</f>
         <v>107</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <f aca="false">I10+J9-J8</f>
         <v>109</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <f aca="false">J10+K9-K8</f>
         <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <f aca="false">ROUND(C10/AVERAGE(D8:G8),0)</f>
         <v>8</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <f aca="false">ROUND(D10/AVERAGE(E8:H8),0)</f>
         <v>7</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <f aca="false">ROUND(E10/AVERAGE(F8:I8),0)</f>
         <v>6</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <f aca="false">ROUND(F10/AVERAGE(G8:J8),0)</f>
         <v>5</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <f aca="false">ROUND(G10/AVERAGE(H8:K8),0)</f>
         <v>4</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <f aca="false">ROUND(H10/AVERAGE(I8:L8),0)</f>
         <v>3</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <f aca="false">ROUND(I10/AVERAGE(J8:M8),0)</f>
         <v>2</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <f aca="false">ROUND(J10/AVERAGE(K8:N8),0)</f>
         <v>2</v>
       </c>
-      <c r="K11" s="0" t="e">
+      <c r="K11" s="1" t="e">
         <f aca="false">ROUND(K10/AVERAGE(L8:O8),0)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <f aca="false">[1]Inventory!B4</f>
         <v>425</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <f aca="false">[1]Forecast!B4</f>
         <v>59</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <f aca="false">[1]Forecast!C4</f>
         <v>52</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <f aca="false">[1]Forecast!D4</f>
         <v>50</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <f aca="false">[1]Forecast!E4</f>
         <v>53</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <f aca="false">[1]Forecast!F4</f>
         <v>59</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <f aca="false">[1]Forecast!G4</f>
         <v>57</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <f aca="false">[1]Forecast!H4</f>
         <v>56</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <f aca="false">[1]Forecast!I4</f>
         <v>57</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <f aca="false">[1]Forecast!J4</f>
         <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <f aca="false">[1]Incoming!B4</f>
         <v>55</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <f aca="false">[1]Incoming!C4</f>
         <v>0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <f aca="false">[1]Incoming!D4</f>
         <v>0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <f aca="false">[1]Incoming!E4</f>
         <v>0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <f aca="false">[1]Incoming!F4</f>
         <v>0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <f aca="false">[1]Incoming!G4</f>
         <v>0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <f aca="false">[1]Incoming!H4</f>
         <v>52</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <f aca="false">[1]Incoming!I4</f>
         <v>56</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <f aca="false">[1]Incoming!J4</f>
         <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <f aca="false">C12-C13+C14</f>
         <v>421</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <f aca="false">C15+D14-D13</f>
         <v>369</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <f aca="false">D15+E14-E13</f>
         <v>319</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <f aca="false">E15+F14-F13</f>
         <v>266</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <f aca="false">F15+G14-G13</f>
         <v>207</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <f aca="false">G15+H14-H13</f>
         <v>150</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <f aca="false">H15+I14-I13</f>
         <v>146</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <f aca="false">I15+J14-J13</f>
         <v>145</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <f aca="false">J15+K14-K13</f>
         <v>141</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <f aca="false">ROUND(C15/AVERAGE(D13:G13),0)</f>
         <v>8</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <f aca="false">ROUND(D15/AVERAGE(E13:H13),0)</f>
         <v>7</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <f aca="false">ROUND(E15/AVERAGE(F13:I13),0)</f>
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <f aca="false">ROUND(F15/AVERAGE(G13:J13),0)</f>
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <f aca="false">ROUND(G15/AVERAGE(H13:K13),0)</f>
         <v>4</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <f aca="false">ROUND(H15/AVERAGE(I13:L13),0)</f>
         <v>3</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <f aca="false">ROUND(I15/AVERAGE(J13:M13),0)</f>
         <v>3</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <f aca="false">ROUND(J15/AVERAGE(K13:N13),0)</f>
         <v>3</v>
       </c>
-      <c r="K16" s="0" t="e">
+      <c r="K16" s="1" t="e">
         <f aca="false">ROUND(K15/AVERAGE(L13:O13),0)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <f aca="false">[1]Inventory!B5</f>
         <v>456</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <f aca="false">[1]Forecast!B5</f>
         <v>58</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <f aca="false">[1]Forecast!C5</f>
         <v>51</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <f aca="false">[1]Forecast!D5</f>
         <v>50</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <f aca="false">[1]Forecast!E5</f>
         <v>58</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <f aca="false">[1]Forecast!F5</f>
         <v>51</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <f aca="false">[1]Forecast!G5</f>
         <v>59</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <f aca="false">[1]Forecast!H5</f>
         <v>60</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <f aca="false">[1]Forecast!I5</f>
         <v>56</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <f aca="false">[1]Forecast!J5</f>
         <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <f aca="false">[1]Incoming!B5</f>
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <f aca="false">[1]Incoming!C5</f>
         <v>0</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <f aca="false">[1]Incoming!D5</f>
         <v>0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <f aca="false">[1]Incoming!E5</f>
         <v>0</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <f aca="false">[1]Incoming!F5</f>
         <v>0</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <f aca="false">[1]Incoming!G5</f>
         <v>0</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <f aca="false">[1]Incoming!H5</f>
         <v>0</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <f aca="false">[1]Incoming!I5</f>
         <v>0</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <f aca="false">[1]Incoming!J5</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <f aca="false">C17-C18+C19</f>
         <v>398</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <f aca="false">C20+D19-D18</f>
         <v>347</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <f aca="false">D20+E19-E18</f>
         <v>297</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <f aca="false">E20+F19-F18</f>
         <v>239</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <f aca="false">F20+G19-G18</f>
         <v>188</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <f aca="false">G20+H19-H18</f>
         <v>129</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <f aca="false">H20+I19-I18</f>
         <v>69</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <f aca="false">I20+J19-J18</f>
         <v>13</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="1" t="n">
         <f aca="false">J20+K19-K18</f>
         <v>-45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <f aca="false">ROUND(C20/AVERAGE(D18:G18),0)</f>
         <v>8</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <f aca="false">ROUND(D20/AVERAGE(E18:H18),0)</f>
         <v>6</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <f aca="false">ROUND(E20/AVERAGE(F18:I18),0)</f>
         <v>5</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <f aca="false">ROUND(F20/AVERAGE(G18:J18),0)</f>
         <v>4</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <f aca="false">ROUND(G20/AVERAGE(H18:K18),0)</f>
         <v>3</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <f aca="false">ROUND(H20/AVERAGE(I18:L18),0)</f>
         <v>2</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="1" t="n">
         <f aca="false">ROUND(I20/AVERAGE(J18:M18),0)</f>
         <v>1</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="1" t="n">
         <f aca="false">ROUND(J20/AVERAGE(K18:N18),0)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="0" t="e">
+      <c r="K21" s="1" t="e">
         <f aca="false">ROUND(K20/AVERAGE(L18:O18),0)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <f aca="false">[1]Inventory!B6</f>
         <v>400</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <f aca="false">[1]Forecast!B6</f>
         <v>50</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <f aca="false">[1]Forecast!C6</f>
         <v>60</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <f aca="false">[1]Forecast!D6</f>
         <v>10</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <f aca="false">[1]Forecast!E6</f>
         <v>20</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <f aca="false">[1]Forecast!F6</f>
         <v>30</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <f aca="false">[1]Forecast!G6</f>
         <v>10</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="1" t="n">
         <f aca="false">[1]Forecast!H6</f>
         <v>10</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="1" t="n">
         <f aca="false">[1]Forecast!I6</f>
         <v>10</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="1" t="n">
         <f aca="false">[1]Forecast!J6</f>
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <f aca="false">[1]Incoming!B6</f>
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <f aca="false">[1]Incoming!C6</f>
         <v>0</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <f aca="false">[1]Incoming!D6</f>
         <v>0</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <f aca="false">[1]Incoming!E6</f>
         <v>0</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <f aca="false">[1]Incoming!F6</f>
         <v>0</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <f aca="false">[1]Incoming!G6</f>
         <v>0</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="1" t="n">
         <f aca="false">[1]Incoming!H6</f>
         <v>25</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="1" t="n">
         <f aca="false">[1]Incoming!I6</f>
         <v>0</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="1" t="n">
         <f aca="false">[1]Incoming!J6</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <f aca="false">C22-C23+C24</f>
         <v>350</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <f aca="false">C25+D24-D23</f>
         <v>290</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <f aca="false">D25+E24-E23</f>
         <v>280</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <f aca="false">E25+F24-F23</f>
         <v>260</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
         <f aca="false">F25+G24-G23</f>
         <v>230</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <f aca="false">G25+H24-H23</f>
         <v>220</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="1" t="n">
         <f aca="false">H25+I24-I23</f>
         <v>235</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="1" t="n">
         <f aca="false">I25+J24-J23</f>
         <v>225</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="1" t="n">
         <f aca="false">J25+K24-K23</f>
         <v>215</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <f aca="false">ROUND(C25/AVERAGE(D23:G23),0)</f>
         <v>12</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <f aca="false">ROUND(D25/AVERAGE(E23:H23),0)</f>
         <v>17</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <f aca="false">ROUND(E25/AVERAGE(F23:I23),0)</f>
         <v>16</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <f aca="false">ROUND(F25/AVERAGE(G23:J23),0)</f>
         <v>17</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="1" t="n">
         <f aca="false">ROUND(G25/AVERAGE(H23:K23),0)</f>
         <v>23</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <f aca="false">ROUND(H25/AVERAGE(I23:L23),0)</f>
         <v>22</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="1" t="n">
         <f aca="false">ROUND(I25/AVERAGE(J23:M23),0)</f>
         <v>24</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="1" t="n">
         <f aca="false">ROUND(J25/AVERAGE(K23:N23),0)</f>
         <v>23</v>
       </c>
-      <c r="K26" s="0" t="e">
+      <c r="K26" s="1" t="e">
         <f aca="false">ROUND(K25/AVERAGE(L23:O23),0)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1512,82 +1516,82 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="15.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="8.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <f aca="false">RANDBETWEEN(1000,2000)</f>
-        <v>1564</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <f aca="false">RANDBETWEEN(400,500)</f>
-        <v>425</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <f aca="false">RANDBETWEEN(400,500)</f>
-        <v>480</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <f aca="false">RANDBETWEEN(400,500)</f>
-        <v>488</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>400</v>
       </c>
     </row>
@@ -1616,238 +1620,238 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="n">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="n">
         <v>45159</v>
       </c>
-      <c r="C1" s="4" t="n">
+      <c r="C1" s="5" t="n">
         <f aca="false">B1+7</f>
         <v>45166</v>
       </c>
-      <c r="D1" s="4" t="n">
+      <c r="D1" s="5" t="n">
         <f aca="false">C1+7</f>
         <v>45173</v>
       </c>
-      <c r="E1" s="4" t="n">
+      <c r="E1" s="5" t="n">
         <f aca="false">D1+7</f>
         <v>45180</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="F1" s="5" t="n">
         <f aca="false">E1+7</f>
         <v>45187</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="G1" s="5" t="n">
         <f aca="false">F1+7</f>
         <v>45194</v>
       </c>
-      <c r="H1" s="4" t="n">
+      <c r="H1" s="5" t="n">
         <f aca="false">G1+7</f>
         <v>45201</v>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="I1" s="5" t="n">
         <f aca="false">H1+7</f>
         <v>45208</v>
       </c>
-      <c r="J1" s="4" t="n">
+      <c r="J1" s="5" t="n">
         <f aca="false">I1+7</f>
         <v>45215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>51</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>50</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>54</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>59</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>56</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>57</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>50</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>60</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>51</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>60</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
         <v>55</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="D4" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>58</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>53</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>50</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>54</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>58</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>55</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>50</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>50</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>59</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>51</v>
+      </c>
+      <c r="J5" s="3" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
         <v>56</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>57</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>57</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>59</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>55</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>56</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>57</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>56</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>58</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>60</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>51</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>59</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>52</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>53</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>56</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>56</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>57</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>58</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>53</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>50</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>60</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>52</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>57</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="D6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="F6" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="n">
+      <c r="H6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1876,238 +1880,238 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="n">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="n">
         <v>45159</v>
       </c>
-      <c r="C1" s="4" t="n">
+      <c r="C1" s="5" t="n">
         <f aca="false">B1+7</f>
         <v>45166</v>
       </c>
-      <c r="D1" s="4" t="n">
+      <c r="D1" s="5" t="n">
         <f aca="false">C1+7</f>
         <v>45173</v>
       </c>
-      <c r="E1" s="4" t="n">
+      <c r="E1" s="5" t="n">
         <f aca="false">D1+7</f>
         <v>45180</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="F1" s="5" t="n">
         <f aca="false">E1+7</f>
         <v>45187</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="G1" s="5" t="n">
         <f aca="false">F1+7</f>
         <v>45194</v>
       </c>
-      <c r="H1" s="4" t="n">
+      <c r="H1" s="5" t="n">
         <f aca="false">G1+7</f>
         <v>45201</v>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="I1" s="5" t="n">
         <f aca="false">H1+7</f>
         <v>45208</v>
       </c>
-      <c r="J1" s="4" t="n">
+      <c r="J1" s="5" t="n">
         <f aca="false">I1+7</f>
         <v>45215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="B2" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>59</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>53</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="3" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>58</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>60</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
+      <c r="J3" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="B4" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
         <v>57</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>58</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>55</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
+      <c r="H4" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>51</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>59</v>
+      <c r="B5" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="n">
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
         <v>0</v>
       </c>
     </row>
